--- a/biology/Médecine/1602_en_santé_et_médecine/1602_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1602_en_santé_et_médecine/1602_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1602_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1602_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1602 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1602_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1602_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 juin  : fondation, à Liège, de la maison de la Miséricorde chrétienne, bientôt connue comme hôpital de Bavière, du nom de son fondateur, le prince-évêque Ernest de Bavière[1],[2].
-En installant à Paris, rue des Petits-Augustins, des frères de l'ordre de Saint-Jean-de-Dieu qui doivent, « suivant leurs réglements, être chirurgiens et pharmaciens et soigner eux-mêmes les malades », Marie de Médicis fonde l'établissement qui est à l'origine de l'hôpital de la Charité[3].
-Théophraste Renaudot (1586-1653) « « monte » à Paris pour y suivre des cours de chirurgie [et] il contracte des écrouelles qui lui laisseront des cicatrices à vie sur le visage[4] ».
-William Harvey (1578-1657) « est reçu docteur en médecine à la célèbre université de Padoue[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 juin  : fondation, à Liège, de la maison de la Miséricorde chrétienne, bientôt connue comme hôpital de Bavière, du nom de son fondateur, le prince-évêque Ernest de Bavière,.
+En installant à Paris, rue des Petits-Augustins, des frères de l'ordre de Saint-Jean-de-Dieu qui doivent, « suivant leurs réglements, être chirurgiens et pharmaciens et soigner eux-mêmes les malades », Marie de Médicis fonde l'établissement qui est à l'origine de l'hôpital de la Charité.
+Théophraste Renaudot (1586-1653) « « monte » à Paris pour y suivre des cours de chirurgie [et] il contracte des écrouelles qui lui laisseront des cicatrices à vie sur le visage ».
+William Harvey (1578-1657) « est reçu docteur en médecine à la célèbre université de Padoue ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1602_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1602_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1602 : première édition du Theatrum chemicum, recueil d'écrits alchimiques européens[6].
-1602-1608 : Félix Platter (1536-1614) publie les trois volumes de sa Praxis medica où, pour la première fois, les maladies sont classées en fonction de leurs symptômes[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1602 : première édition du Theatrum chemicum, recueil d'écrits alchimiques européens.
+1602-1608 : Félix Platter (1536-1614) publie les trois volumes de sa Praxis medica où, pour la première fois, les maladies sont classées en fonction de leurs symptômes.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1602_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1602_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>28 juillet[8] : Peder Sørensen (en latin Petrus Severinus, né vers 1540), médecin et alchimiste danois, disciple de Paracelse (1493-1541), auteur de Idea medicinæ philosophicæ (1571) sur la présence d’agents invisibles, cause des maladies.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28 juillet : Peder Sørensen (en latin Petrus Severinus, né vers 1540), médecin et alchimiste danois, disciple de Paracelse (1493-1541), auteur de Idea medicinæ philosophicæ (1571) sur la présence d’agents invisibles, cause des maladies.
 25 septembre : Caspar Peucer (né en 1525), médecin, mathématicien et philosophe allemand.
-Václav Lavín (né vers 1547), alchimiste silésien, « paracelsien résolu », auquel Claude Aubery dédie son traité De concordia medicorum[6].</t>
+Václav Lavín (né vers 1547), alchimiste silésien, « paracelsien résolu », auquel Claude Aubery dédie son traité De concordia medicorum.</t>
         </is>
       </c>
     </row>
